--- a/results/mp/tinybert/corona/confidence/210/desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/desired-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,97 +40,91 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shortages</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>safety</t>
@@ -139,187 +133,196 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>share</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>$</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>&amp;</t>
   </si>
   <si>
-    <t>new</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>_</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>_</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
   <si>
     <t>at</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>.</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>is</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>co</t>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -796,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -846,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8333333333333334</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9583333333333334</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -946,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8051948051948052</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7619047619047619</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>363</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.9310344827586207</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1114,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.925</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1146,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.9166666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7083333333333334</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1214,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.9090909090909091</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6111111111111112</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8823529411764706</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5450643776824035</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C14">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5263157894736842</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8620689655172413</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1396,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5172413793103449</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,562 +1417,322 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.8515625</v>
+      </c>
+      <c r="L16">
+        <v>109</v>
+      </c>
+      <c r="M16">
+        <v>109</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.8431372549019608</v>
+      </c>
+      <c r="L17">
+        <v>43</v>
+      </c>
+      <c r="M17">
+        <v>43</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L18">
+        <v>69</v>
+      </c>
+      <c r="M18">
+        <v>69</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>48</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="L21">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.82</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L24">
+        <v>86</v>
+      </c>
+      <c r="M24">
+        <v>86</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L25">
+        <v>28</v>
+      </c>
+      <c r="M25">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K16">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L16">
-        <v>23</v>
-      </c>
-      <c r="M16">
-        <v>23</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K26">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K17">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L17">
-        <v>33</v>
-      </c>
-      <c r="M17">
-        <v>33</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="K27">
+        <v>0.7625</v>
+      </c>
+      <c r="L27">
+        <v>122</v>
+      </c>
+      <c r="M27">
+        <v>122</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K18">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
-      <c r="M18">
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>24</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>11</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>21</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L20">
-        <v>43</v>
-      </c>
-      <c r="M20">
-        <v>43</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.3625</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>29</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>51</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L21">
-        <v>45</v>
-      </c>
-      <c r="M21">
-        <v>45</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C22">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>45</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>90</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.313953488372093</v>
-      </c>
-      <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>59</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L23">
-        <v>42</v>
-      </c>
-      <c r="M23">
-        <v>42</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>34</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L24">
-        <v>14</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.1545454545454545</v>
-      </c>
-      <c r="C25">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>93</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.8</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.09677419354838709</v>
-      </c>
-      <c r="C26">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>168</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L26">
-        <v>11</v>
-      </c>
-      <c r="M26">
-        <v>11</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L27">
-        <v>10</v>
-      </c>
-      <c r="M27">
-        <v>10</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="K28">
         <v>0.7575757575757576</v>
@@ -1993,18 +1756,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.755868544600939</v>
+        <v>0.7519582245430809</v>
       </c>
       <c r="L29">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="M29">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2016,73 +1779,73 @@
         <v>0</v>
       </c>
       <c r="Q29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L31">
+        <v>67</v>
+      </c>
+      <c r="M31">
+        <v>67</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30">
-        <v>0.75</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
+      <c r="K32">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="L32">
         <v>61</v>
       </c>
-      <c r="K31">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="L31">
-        <v>22</v>
-      </c>
-      <c r="M31">
-        <v>22</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L32">
-        <v>19</v>
-      </c>
       <c r="M32">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2094,21 +1857,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.72</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2120,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6744186046511628</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L34">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2146,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6712328767123288</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2172,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6527777777777778</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L36">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2198,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.6428571428571429</v>
+        <v>0.6305084745762712</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2224,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.64</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2250,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.6363636363636364</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2276,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.631578947368421</v>
+        <v>0.6</v>
       </c>
       <c r="L40">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2302,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.6195652173913043</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L41">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="M41">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2328,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L42">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2354,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5142857142857142</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2380,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.5271966527196653</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2406,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.4864864864864865</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2432,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.4166666666666667</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2458,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.3421052631578947</v>
+        <v>0.4375</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2484,21 +2247,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.3225806451612903</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2510,21 +2273,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.2222222222222222</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L49">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2536,73 +2299,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>42</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.1494252873563219</v>
+        <v>0.1031175059952038</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>74</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.1041666666666667</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="L51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>86</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.0707070707070707</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2614,47 +2377,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.05909090909090909</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N53">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>207</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.05396825396825397</v>
+        <v>0.07566462167689161</v>
       </c>
       <c r="L54">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M54">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2666,21 +2429,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>298</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.04824561403508772</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2692,41 +2455,41 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>434</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.04761904761904762</v>
+        <v>0.06215722120658135</v>
       </c>
       <c r="L56">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="N56">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>200</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.0472636815920398</v>
+        <v>0.05828220858895705</v>
       </c>
       <c r="L57">
         <v>19</v>
@@ -2744,73 +2507,73 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>383</v>
+        <v>307</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.04390243902439024</v>
+        <v>0.05409582689335394</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>392</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K59">
-        <v>0.03682719546742209</v>
+        <v>0.05268490374873354</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>340</v>
+        <v>935</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K60">
-        <v>0.0352112676056338</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2822,151 +2585,151 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>411</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K61">
-        <v>0.02757793764988009</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>811</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K62">
-        <v>0.02696871628910464</v>
+        <v>0.04550499445061043</v>
       </c>
       <c r="L62">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>902</v>
+        <v>860</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K63">
-        <v>0.02105263157894737</v>
+        <v>0.04267589388696655</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M63">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="N63">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>930</v>
+        <v>830</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K64">
+        <v>0.0368701351904957</v>
+      </c>
+      <c r="L64">
+        <v>90</v>
+      </c>
+      <c r="M64">
         <v>94</v>
       </c>
-      <c r="K64">
-        <v>0.01845018450184502</v>
-      </c>
-      <c r="L64">
-        <v>10</v>
-      </c>
-      <c r="M64">
-        <v>10</v>
-      </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>532</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K65">
-        <v>0.01694915254237288</v>
+        <v>0.03641092327698309</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1102</v>
+        <v>741</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K66">
-        <v>0.01547277936962751</v>
+        <v>0.03177570093457944</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="M66">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="N66">
         <v>0.96</v>
@@ -2978,99 +2741,99 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>1718</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>0.01487414187643021</v>
+        <v>0.02959910078681154</v>
       </c>
       <c r="L67">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M67">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>861</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K68">
-        <v>0.01462904911180773</v>
+        <v>0.02622576966932725</v>
       </c>
       <c r="L68">
+        <v>23</v>
+      </c>
+      <c r="M68">
         <v>28</v>
       </c>
-      <c r="M68">
-        <v>30</v>
-      </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0.18</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>1886</v>
+        <v>854</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K69">
-        <v>0.01359516616314199</v>
+        <v>0.02622576966932725</v>
       </c>
       <c r="L69">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N69">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1959</v>
+        <v>854</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K70">
-        <v>0.01107754279959718</v>
+        <v>0.02366626554352186</v>
       </c>
       <c r="L70">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="M70">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="N70">
         <v>0.92</v>
@@ -3082,33 +2845,319 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>982</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K71">
+        <v>0.02361872627583298</v>
+      </c>
+      <c r="L71">
+        <v>56</v>
+      </c>
+      <c r="M71">
+        <v>64</v>
+      </c>
+      <c r="N71">
+        <v>0.88</v>
+      </c>
+      <c r="O71">
+        <v>0.12</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72">
+        <v>0.02199874292897549</v>
+      </c>
+      <c r="L72">
+        <v>35</v>
+      </c>
+      <c r="M72">
+        <v>38</v>
+      </c>
+      <c r="N72">
+        <v>0.92</v>
+      </c>
+      <c r="O72">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K73">
+        <v>0.02038161318300087</v>
+      </c>
+      <c r="L73">
+        <v>47</v>
+      </c>
+      <c r="M73">
+        <v>50</v>
+      </c>
+      <c r="N73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K74">
+        <v>0.01843722563652327</v>
+      </c>
+      <c r="L74">
+        <v>21</v>
+      </c>
+      <c r="M74">
+        <v>22</v>
+      </c>
+      <c r="N74">
+        <v>0.95</v>
+      </c>
+      <c r="O74">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K75">
+        <v>0.01775912173070714</v>
+      </c>
+      <c r="L75">
+        <v>55</v>
+      </c>
+      <c r="M75">
+        <v>65</v>
+      </c>
+      <c r="N75">
+        <v>0.85</v>
+      </c>
+      <c r="O75">
+        <v>0.15</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K76">
+        <v>0.01726144297905353</v>
+      </c>
+      <c r="L76">
+        <v>89</v>
+      </c>
+      <c r="M76">
+        <v>98</v>
+      </c>
+      <c r="N76">
+        <v>0.91</v>
+      </c>
+      <c r="O76">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K77">
+        <v>0.01554001554001554</v>
+      </c>
+      <c r="L77">
+        <v>20</v>
+      </c>
+      <c r="M77">
+        <v>22</v>
+      </c>
+      <c r="N77">
+        <v>0.91</v>
+      </c>
+      <c r="O77">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K78">
+        <v>0.01503585473051122</v>
+      </c>
+      <c r="L78">
+        <v>65</v>
+      </c>
+      <c r="M78">
+        <v>70</v>
+      </c>
+      <c r="N78">
+        <v>0.93</v>
+      </c>
+      <c r="O78">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K79">
+        <v>0.01469507714915503</v>
+      </c>
+      <c r="L79">
+        <v>20</v>
+      </c>
+      <c r="M79">
+        <v>22</v>
+      </c>
+      <c r="N79">
+        <v>0.91</v>
+      </c>
+      <c r="O79">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K80">
+        <v>0.01301115241635688</v>
+      </c>
+      <c r="L80">
+        <v>28</v>
+      </c>
+      <c r="M80">
+        <v>34</v>
+      </c>
+      <c r="N80">
+        <v>0.82</v>
+      </c>
+      <c r="O80">
+        <v>0.18</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K71">
-        <v>0.008980115458627326</v>
-      </c>
-      <c r="L71">
-        <v>14</v>
-      </c>
-      <c r="M71">
-        <v>19</v>
-      </c>
-      <c r="N71">
-        <v>0.74</v>
-      </c>
-      <c r="O71">
-        <v>0.26</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>1545</v>
+      <c r="K81">
+        <v>0.01044713748432929</v>
+      </c>
+      <c r="L81">
+        <v>25</v>
+      </c>
+      <c r="M81">
+        <v>26</v>
+      </c>
+      <c r="N81">
+        <v>0.96</v>
+      </c>
+      <c r="O81">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K82">
+        <v>0.00845599749451926</v>
+      </c>
+      <c r="L82">
+        <v>27</v>
+      </c>
+      <c r="M82">
+        <v>35</v>
+      </c>
+      <c r="N82">
+        <v>0.77</v>
+      </c>
+      <c r="O82">
+        <v>0.23</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>3166</v>
       </c>
     </row>
   </sheetData>
